--- a/SelTestNG_DD/TestData/TestDataFile.xlsx
+++ b/SelTestNG_DD/TestData/TestDataFile.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Item</t>
   </si>
@@ -415,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -479,7 +479,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -500,28 +500,6 @@
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
-    </row>
-    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="3">
-        <v>10789537</v>
-      </c>
-      <c r="C4" s="3">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="3">
-        <v>2013</v>
-      </c>
-      <c r="F4" s="3">
-        <v>84107</v>
-      </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SelTestNG_DD/TestData/TestDataFile.xlsx
+++ b/SelTestNG_DD/TestData/TestDataFile.xlsx
@@ -4,10 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="TestData_Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="BOPIS_TestData" sheetId="1" r:id="rId1"/>
+    <sheet name="SFS_TestData" sheetId="2" r:id="rId2"/>
+    <sheet name="STS_TestData" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="10">
   <si>
     <t>Item</t>
   </si>
@@ -415,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -501,8 +503,181 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D4" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3">
+        <v>10181058</v>
+      </c>
+      <c r="C2" s="3">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3">
+        <v>558</v>
+      </c>
+      <c r="F2" s="3">
+        <v>18052</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3">
+        <v>10181119</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="3">
+        <v>558</v>
+      </c>
+      <c r="F3" s="3">
+        <v>18052</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3">
+        <v>10181058</v>
+      </c>
+      <c r="C2" s="3">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3">
+        <v>558</v>
+      </c>
+      <c r="F2" s="3">
+        <v>18052</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3">
+        <v>10181119</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="3">
+        <v>558</v>
+      </c>
+      <c r="F3" s="3">
+        <v>18052</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>